--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_end.xlsx
@@ -936,7 +936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  That’s not the kind of “answer” we need.
+    <t xml:space="preserve">[name="Reunion Soldier"]  That’s not the kind of 'answer' we need.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_05_end.xlsx
@@ -728,15 +728,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She hasn’t caught up yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...If we really run into her head-on, there’s going to be trouble.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  You shouldn’t use your Arts on Talulah. This isn’t the first time either. We must always be careful of what we see.
+    <t xml:space="preserve">[name="Hoederer"]  She hasn't caught up yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...If we really run into her head-on, there's going to be trouble.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  You shouldn't use your Arts on Talulah. This isn't the first time either. We must always be careful of what we see.
 </t>
   </si>
   <si>
@@ -744,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’ve got a lot of heavies suspicious of us thanks to W’s little plans. Do you want to make things even worse?
+    <t xml:space="preserve">[name="Hoederer"]  We've got a lot of heavies suspicious of us thanks to W's little plans. Do you want to make things even worse?
 </t>
   </si>
   <si>
@@ -756,23 +756,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But now? There’s no effort made to curb their base desires. There is only mindless destruction and killing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  That doesn’t prove anything. That’s how the other races have always treated the Infected. They’re not like Sarkaz.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...You don’t understand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  The behavior by itself isn’t a big deal, but I’m talking about the consequences...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Talulah... She’s sabotaging Reunion, on purpose.
+    <t xml:space="preserve">[name="Ines"]  But now? There's no effort made to curb their base desires. There is only mindless destruction and killing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  That doesn't prove anything. That's how the other races have always treated the Infected. They're not like Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...You don't understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  The behavior by itself isn't a big deal, but I'm talking about the consequences...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Talulah... She's sabotaging Reunion, on purpose.
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t you think this situation feels familiar?
+    <t xml:space="preserve">[name="Ines"]  Don't you think this situation feels familiar?
 </t>
   </si>
   <si>
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But she’s the only one who could dismantle the very tower she built, piece by piece, totally undetected.
+    <t xml:space="preserve">[name="Ines"]  But she's the only one who could dismantle the very tower she built, piece by piece, totally undetected.
 </t>
   </si>
   <si>
@@ -804,19 +804,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  It’s just like three years ago.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But he... he might’ve always been like that. He did it all without hesitation... He was just good at hiding it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Talulah isn’t like that. Her change was too sudden.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Her shadow... It’s as if there are two shadows, but I see no traces of Arts. It’s more like...
+    <t xml:space="preserve">[name="Ines"]  It's just like three years ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But he... he might've always been like that. He did it all without hesitation... He was just good at hiding it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Talulah isn't like that. Her change was too sudden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Her shadow... It's as if there are two shadows, but I see no traces of Arts. It's more like...
 </t>
   </si>
   <si>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  The nature of your Arts is very special. But your feelings are too vague this time, and I can’t base my decisions on vague feelings.
+    <t xml:space="preserve">[name="Hoederer"]  The nature of your Arts is very special. But your feelings are too vague this time, and I can't base my decisions on vague feelings.
 </t>
   </si>
   <si>
@@ -832,7 +832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Quiet, we’ve already been noticed.
+    <t xml:space="preserve">[name="Hoederer"]  Quiet, we've already been noticed.
 </t>
   </si>
   <si>
@@ -844,15 +844,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’m not sure...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...I know W can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I’ll go find her. Garcin is dead, so she should be the new leader.
+    <t xml:space="preserve">[name="Hoederer"]  I'm not sure...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...I know W can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I'll go find her. Garcin is dead, so she should be the new leader.
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I can’t wait any longer. Don’t give me orders, we’re still the same rank.
+    <t xml:space="preserve">[name="Ines"]  I can't wait any longer. Don't give me orders, we're still the same rank.
 </t>
   </si>
   <si>
@@ -868,11 +868,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I say that, but this is the first time I’ve disobeyed your orders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You shouldn’t always overthink things, Hoederer.
+    <t xml:space="preserve">[name="Ines"]  I say that, but this is the first time I've disobeyed your orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You shouldn't always overthink things, Hoederer.
 </t>
   </si>
   <si>
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  (Isn’t that the base camp? What is she doing?)
+    <t xml:space="preserve">[name="Ines"]  (Isn't that the base camp? What is she doing?)
 </t>
   </si>
   <si>
@@ -916,11 +916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Your bunch has made too may mistakes. Did you really think our leader hasn’t noticed?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Out of my way. I don’t have to listen to your whining.
+    <t xml:space="preserve">[name="Reunion Soldier"]  Your bunch has made too may mistakes. Did you really think our leader hasn't noticed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Out of my way. I don't have to listen to your whining.
 </t>
   </si>
   <si>
@@ -928,15 +928,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  …I know. After I report to W, I will then report to Talulah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  There’s no need for that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  That’s not the kind of 'answer' we need.
+    <t xml:space="preserve">[name="Ines"]  ...I know. After I report to W, I will then report to Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  There's no need for that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  That's not the kind of 'answer' we need.
 </t>
   </si>
   <si>
@@ -952,11 +952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Determined Reunion Caster"]  You’re not going to identify the body?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  ...The fighting was pretty noisy. It’s drawing a lot of attention. Blow the whole street, now.
+    <t xml:space="preserve">[name="Determined Reunion Caster"]  You're not going to identify the body?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  ...The fighting was pretty noisy. It's drawing a lot of attention. Blow the whole street, now.
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Determined Reunion Caster"]  Take care of my family. They’re still back in town.
+    <t xml:space="preserve">[name="Determined Reunion Caster"]  Take care of my family. They're still back in town.
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  W will notice soon... Let’s go.
+    <t xml:space="preserve">[name="Reunion Soldier"]  W will notice soon... Let's go.
 </t>
   </si>
   <si>
